--- a/Listos/Presupuesto_industria.xlsx
+++ b/Listos/Presupuesto_industria.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28926"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10916"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3C2EC271-22D5-49E0-B652-49CB682C5DD9}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maitevillagran/Desktop/E2 Opti/Entrega2Opti/Listos/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B36B5BF-B9FE-B440-BBDC-97DE04D511F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="14800" windowHeight="8020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +37,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -403,14 +408,14 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>45000000</v>
+        <v>2091909215</v>
       </c>
     </row>
   </sheetData>
